--- a/conRed.xlsx
+++ b/conRed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\simpleConjunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B483E-66C3-4494-9F9E-39A647AA716C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A997D-35AD-4B2B-BEDF-8997952E421F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="2610" windowWidth="25590" windowHeight="12225" xr2:uid="{8EE45817-3F1D-4ED5-AA56-A662518BD526}"/>
+    <workbookView xWindow="2505" yWindow="840" windowWidth="25590" windowHeight="12225" xr2:uid="{8EE45817-3F1D-4ED5-AA56-A662518BD526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="229">
   <si>
     <t>ImageFile</t>
   </si>
@@ -420,6 +420,306 @@
   </si>
   <si>
     <t>[9,3]</t>
+  </si>
+  <si>
+    <t>[0.8,-0.8]</t>
+  </si>
+  <si>
+    <t>[0.2,0.2]</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial1.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial2.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial3.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial4.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial5.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial6.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial7.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial8.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial9.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial10.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial11.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial12.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial13.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial14.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial15.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial17.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial18.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial19.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial20.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial21.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial22.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial23.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial24.png</t>
+  </si>
+  <si>
+    <t>0_targ_1_dist_red/trial25.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial1.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial2.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial3.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial4.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial5.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial6.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial7.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial8.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial9.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial10.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial11.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial12.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial13.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial14.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial15.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial17.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial18.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial19.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial20.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial21.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial22.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial23.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial24.png</t>
+  </si>
+  <si>
+    <t>0_targ_4_dist_red/trial25.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial1.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial2.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial3.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial4.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial5.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial6.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial7.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial8.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial9.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial10.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial11.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial12.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial13.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial14.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial15.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial16.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial17.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial18.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial19.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial20.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial21.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial22.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial23.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial24.png</t>
+  </si>
+  <si>
+    <t>0_targ_10_dist_red/trial25.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial1.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial2.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial3.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial4.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial5.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial6.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial7.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial8.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial9.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial10.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial11.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial12.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial13.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial14.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial15.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial16.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial17.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial18.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial19.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial20.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial21.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial22.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial23.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial24.png</t>
+  </si>
+  <si>
+    <t>0_targ_16_dist_red/trial25.png</t>
   </si>
 </sst>
 </file>
@@ -771,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44FE32A-A8AF-4806-9BBA-00AE45B23A64}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,6 +2190,1106 @@
         <v>128</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>179</v>
+      </c>
+      <c r="B152" t="s">
+        <v>129</v>
+      </c>
+      <c r="C152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>182</v>
+      </c>
+      <c r="B155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>189</v>
+      </c>
+      <c r="B162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" t="s">
+        <v>129</v>
+      </c>
+      <c r="C167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>195</v>
+      </c>
+      <c r="B168" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>196</v>
+      </c>
+      <c r="B169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>197</v>
+      </c>
+      <c r="B170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>198</v>
+      </c>
+      <c r="B171" t="s">
+        <v>129</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B174" t="s">
+        <v>129</v>
+      </c>
+      <c r="C174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" t="s">
+        <v>129</v>
+      </c>
+      <c r="C182" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>219</v>
+      </c>
+      <c r="B192" t="s">
+        <v>129</v>
+      </c>
+      <c r="C192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>221</v>
+      </c>
+      <c r="B194" t="s">
+        <v>129</v>
+      </c>
+      <c r="C194" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>223</v>
+      </c>
+      <c r="B196" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" t="s">
+        <v>129</v>
+      </c>
+      <c r="C197" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" t="s">
+        <v>129</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>226</v>
+      </c>
+      <c r="B199" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>227</v>
+      </c>
+      <c r="B200" t="s">
+        <v>129</v>
+      </c>
+      <c r="C200" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" t="s">
+        <v>129</v>
+      </c>
+      <c r="C201" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
